--- a/docs/Rock64_GPIO_Reference.xlsx
+++ b/docs/Rock64_GPIO_Reference.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wl-svr-fileserv\Documents\Internal Network Documentation\Documentation\SBC - Rock64\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697F1CF6-FDA5-4F10-B816-0A5A17816951}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E9A231-4299-4197-98B2-222C6EAF2747}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9315" xr2:uid="{F2F055CA-D3D1-4D0F-B38F-FC82F913A6EA}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="98">
   <si>
     <t>Pin #</t>
   </si>
@@ -98,9 +98,6 @@
     <t>_</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>GPIO0_A0</t>
   </si>
   <si>
@@ -146,12 +143,6 @@
     <t>GPIO1_A3</t>
   </si>
   <si>
-    <t>Pi-2 Bus</t>
-  </si>
-  <si>
-    <t>Pi P5+ Bus</t>
-  </si>
-  <si>
     <t>Rock 64</t>
   </si>
   <si>
@@ -285,13 +276,58 @@
   </si>
   <si>
     <t>ROCK64 Pi-2 and Pi P5+ Bus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pi-2 Bus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pi P5+ Bus</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Works only as an input</t>
+  </si>
+  <si>
+    <t>GPIO0_A2</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>-60-</t>
+  </si>
+  <si>
+    <t>-2-</t>
+  </si>
+  <si>
+    <t>-0-</t>
+  </si>
+  <si>
+    <t>Crashes the Rock64</t>
+  </si>
+  <si>
+    <t>Toggles power to USB 3.0</t>
+  </si>
+  <si>
+    <t>Toggles power to USB 2.0</t>
+  </si>
+  <si>
+    <t>Works</t>
+  </si>
+  <si>
+    <t>Works (Not usable with MicroSD)</t>
+  </si>
+  <si>
+    <t>67*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,13 +417,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -395,8 +424,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -485,8 +530,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -526,16 +577,103 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,9 +682,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -557,15 +695,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -575,83 +704,133 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -979,772 +1158,971 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F240BB31-0360-4343-BB50-7FB0C69BA566}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:J1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="5.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="5.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="31.7109375" customWidth="1"/>
+    <col min="11" max="14" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+    </row>
+    <row r="4" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="G5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="34">
+        <v>1</v>
+      </c>
+      <c r="F6" s="35">
+        <v>2</v>
+      </c>
+      <c r="G6" s="32"/>
+      <c r="H6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="30">
+        <v>89</v>
+      </c>
+      <c r="E7" s="36">
+        <v>3</v>
+      </c>
+      <c r="F7" s="35">
+        <v>4</v>
+      </c>
+      <c r="G7" s="32"/>
+      <c r="H7" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="30">
+        <v>88</v>
+      </c>
+      <c r="E8" s="36">
+        <v>5</v>
+      </c>
+      <c r="F8" s="37">
+        <v>6</v>
+      </c>
+      <c r="G8" s="32"/>
+      <c r="H8" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="38">
+        <v>7</v>
+      </c>
+      <c r="F9" s="39">
+        <v>8</v>
+      </c>
+      <c r="G9" s="32">
+        <v>64</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="30"/>
+      <c r="E10" s="37">
+        <v>9</v>
+      </c>
+      <c r="F10" s="39">
+        <v>10</v>
+      </c>
+      <c r="G10" s="32">
+        <v>65</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="30"/>
+      <c r="E11" s="38">
+        <v>11</v>
+      </c>
+      <c r="F11" s="40">
+        <v>12</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="38">
+        <v>13</v>
+      </c>
+      <c r="F12" s="37">
+        <v>14</v>
+      </c>
+      <c r="G12" s="32"/>
+      <c r="H12" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="15"/>
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="30">
+        <v>100</v>
+      </c>
+      <c r="E13" s="40">
+        <v>15</v>
+      </c>
+      <c r="F13" s="40">
+        <v>16</v>
+      </c>
+      <c r="G13" s="32">
+        <v>101</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="30"/>
+      <c r="E14" s="34">
+        <v>17</v>
+      </c>
+      <c r="F14" s="40">
+        <v>18</v>
+      </c>
+      <c r="G14" s="32">
+        <v>102</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="30">
+        <v>97</v>
+      </c>
+      <c r="E15" s="41">
+        <v>19</v>
+      </c>
+      <c r="F15" s="37">
+        <v>20</v>
+      </c>
+      <c r="G15" s="32"/>
+      <c r="H15" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="15"/>
+      <c r="J15" s="14"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="30">
+        <v>98</v>
+      </c>
+      <c r="E16" s="41">
+        <v>21</v>
+      </c>
+      <c r="F16" s="40">
+        <v>22</v>
+      </c>
+      <c r="G16" s="32">
+        <v>103</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="30">
+        <v>96</v>
+      </c>
+      <c r="E17" s="41">
+        <v>23</v>
+      </c>
+      <c r="F17" s="41">
+        <v>24</v>
+      </c>
+      <c r="G17" s="32">
+        <v>104</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="30"/>
+      <c r="E18" s="37">
+        <v>25</v>
+      </c>
+      <c r="F18" s="41">
+        <v>26</v>
+      </c>
+      <c r="G18" s="32">
+        <v>76</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="22"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="30">
+        <v>68</v>
+      </c>
+      <c r="E19" s="42">
+        <v>27</v>
+      </c>
+      <c r="F19" s="42">
+        <v>28</v>
+      </c>
+      <c r="G19" s="32">
+        <v>69</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" s="14"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="30"/>
+      <c r="E20" s="38">
+        <v>29</v>
+      </c>
+      <c r="F20" s="37">
+        <v>30</v>
+      </c>
+      <c r="G20" s="32"/>
+      <c r="H20" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="15"/>
+      <c r="J20" s="14"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="38">
+        <v>31</v>
+      </c>
+      <c r="F21" s="43">
+        <v>32</v>
+      </c>
+      <c r="G21" s="32">
+        <v>38</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="30">
+        <v>32</v>
+      </c>
+      <c r="E22" s="43">
+        <v>33</v>
+      </c>
+      <c r="F22" s="37">
+        <v>34</v>
+      </c>
+      <c r="G22" s="32"/>
+      <c r="H22" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="15"/>
+      <c r="J22" s="14"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="30">
+        <v>33</v>
+      </c>
+      <c r="E23" s="43">
+        <v>35</v>
+      </c>
+      <c r="F23" s="43">
+        <v>36</v>
+      </c>
+      <c r="G23" s="32">
+        <v>37</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="30">
+        <v>34</v>
+      </c>
+      <c r="E24" s="43">
+        <v>37</v>
+      </c>
+      <c r="F24" s="43">
+        <v>38</v>
+      </c>
+      <c r="G24" s="32">
+        <v>36</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="24"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="30"/>
+      <c r="E25" s="37">
+        <v>39</v>
+      </c>
+      <c r="F25" s="43">
+        <v>40</v>
+      </c>
+      <c r="G25" s="32">
+        <v>35</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="29"/>
+      <c r="G28" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" s="51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="27"/>
+      <c r="E29" s="44">
+        <v>1</v>
+      </c>
+      <c r="F29" s="45">
+        <v>2</v>
+      </c>
+      <c r="G29" s="28"/>
+      <c r="H29" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="27">
+        <v>81</v>
+      </c>
+      <c r="E30" s="46">
+        <v>3</v>
+      </c>
+      <c r="F30" s="46">
+        <v>4</v>
+      </c>
+      <c r="G30" s="28">
+        <v>82</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="27">
+        <v>87</v>
+      </c>
+      <c r="E31" s="46">
+        <v>5</v>
+      </c>
+      <c r="F31" s="46">
+        <v>6</v>
+      </c>
+      <c r="G31" s="28">
+        <v>83</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="J31" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="27"/>
+      <c r="E32" s="47">
+        <v>7</v>
+      </c>
+      <c r="F32" s="47">
+        <v>8</v>
+      </c>
+      <c r="G32" s="28"/>
+      <c r="H32" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="27">
+        <v>80</v>
+      </c>
+      <c r="E33" s="46">
+        <v>9</v>
+      </c>
+      <c r="F33" s="46">
+        <v>10</v>
+      </c>
+      <c r="G33" s="28">
+        <v>79</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="18" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="C34" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="27">
+        <v>85</v>
+      </c>
+      <c r="E34" s="46">
+        <v>11</v>
+      </c>
+      <c r="F34" s="46">
+        <v>12</v>
+      </c>
+      <c r="G34" s="28">
+        <v>84</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J34" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
+      <c r="B35" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="27">
+        <v>27</v>
+      </c>
+      <c r="E35" s="48">
         <v>13</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="16">
-        <v>1</v>
-      </c>
-      <c r="E6" s="17">
-        <v>2</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="F35" s="46">
+        <v>14</v>
+      </c>
+      <c r="G35" s="28">
+        <v>86</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I35" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J35" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="27"/>
+      <c r="E36" s="47">
+        <v>15</v>
+      </c>
+      <c r="F36" s="47">
+        <v>16</v>
+      </c>
+      <c r="G36" s="28"/>
+      <c r="H36" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" s="27"/>
+      <c r="E37" s="49">
+        <v>17</v>
+      </c>
+      <c r="F37" s="49">
         <v>18</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="G37" s="28"/>
+      <c r="H37" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="27"/>
+      <c r="E38" s="49">
+        <v>19</v>
+      </c>
+      <c r="F38" s="49">
+        <v>20</v>
+      </c>
+      <c r="G38" s="28"/>
+      <c r="H38" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="27">
         <v>89</v>
       </c>
-      <c r="D7" s="18">
-        <v>3</v>
-      </c>
-      <c r="E7" s="17">
-        <v>4</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="E39" s="49">
+        <v>21</v>
+      </c>
+      <c r="F39" s="49">
+        <v>22</v>
+      </c>
+      <c r="G39" s="28">
+        <v>88</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="I39" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="2">
-        <v>88</v>
-      </c>
-      <c r="D8" s="18">
-        <v>5</v>
-      </c>
-      <c r="E8" s="19">
-        <v>6</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="2">
-        <v>60</v>
-      </c>
-      <c r="D9" s="20">
-        <v>7</v>
-      </c>
-      <c r="E9" s="21">
-        <v>8</v>
-      </c>
-      <c r="F9" s="2">
-        <v>64</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="19">
-        <v>9</v>
-      </c>
-      <c r="E10" s="21">
-        <v>10</v>
-      </c>
-      <c r="F10" s="2">
-        <v>65</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="22">
-        <v>11</v>
-      </c>
-      <c r="E11" s="20">
-        <v>12</v>
-      </c>
-      <c r="F11" s="2">
-        <v>67</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="20">
-        <v>13</v>
-      </c>
-      <c r="E12" s="19">
-        <v>14</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2">
-        <v>100</v>
-      </c>
-      <c r="D13" s="20">
-        <v>15</v>
-      </c>
-      <c r="E13" s="20">
-        <v>16</v>
-      </c>
-      <c r="F13" s="2">
-        <v>101</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="16">
-        <v>17</v>
-      </c>
-      <c r="E14" s="20">
-        <v>18</v>
-      </c>
-      <c r="F14" s="2">
-        <v>102</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="2">
-        <v>97</v>
-      </c>
-      <c r="D15" s="23">
-        <v>19</v>
-      </c>
-      <c r="E15" s="19">
-        <v>20</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="2">
-        <v>98</v>
-      </c>
-      <c r="D16" s="23">
-        <v>21</v>
-      </c>
-      <c r="E16" s="20">
-        <v>22</v>
-      </c>
-      <c r="F16" s="2">
-        <v>103</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="2">
-        <v>96</v>
-      </c>
-      <c r="D17" s="23">
-        <v>23</v>
-      </c>
-      <c r="E17" s="23">
-        <v>24</v>
-      </c>
-      <c r="F17" s="2">
-        <v>104</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="19">
-        <v>25</v>
-      </c>
-      <c r="E18" s="23">
-        <v>26</v>
-      </c>
-      <c r="F18" s="2">
-        <v>76</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I18" s="11"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="2">
-        <v>68</v>
-      </c>
-      <c r="D19" s="24">
-        <v>27</v>
-      </c>
-      <c r="E19" s="24">
-        <v>28</v>
-      </c>
-      <c r="F19" s="2">
-        <v>69</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="22">
-        <v>29</v>
-      </c>
-      <c r="E20" s="19">
-        <v>30</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="22">
-        <v>31</v>
-      </c>
-      <c r="E21" s="25">
-        <v>32</v>
-      </c>
-      <c r="F21" s="2">
-        <v>38</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="2">
-        <v>32</v>
-      </c>
-      <c r="D22" s="25">
-        <v>33</v>
-      </c>
-      <c r="E22" s="19">
-        <v>34</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="2">
-        <v>33</v>
-      </c>
-      <c r="D23" s="25">
-        <v>35</v>
-      </c>
-      <c r="E23" s="25">
-        <v>36</v>
-      </c>
-      <c r="F23" s="2">
-        <v>37</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="2">
-        <v>34</v>
-      </c>
-      <c r="D24" s="25">
-        <v>37</v>
-      </c>
-      <c r="E24" s="25">
-        <v>38</v>
-      </c>
-      <c r="F24" s="2">
-        <v>36</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="19">
-        <v>39</v>
-      </c>
-      <c r="E25" s="25">
-        <v>40</v>
-      </c>
-      <c r="F25" s="2">
-        <v>35</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="40"/>
-      <c r="F28" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="27">
-        <v>1</v>
-      </c>
-      <c r="E29" s="26">
-        <v>2</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="1">
-        <v>81</v>
-      </c>
-      <c r="D30" s="31">
-        <v>3</v>
-      </c>
-      <c r="E30" s="31">
-        <v>4</v>
-      </c>
-      <c r="F30" s="1">
-        <v>82</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H30" s="36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="1">
-        <v>87</v>
-      </c>
-      <c r="D31" s="31">
-        <v>5</v>
-      </c>
-      <c r="E31" s="31">
-        <v>6</v>
-      </c>
-      <c r="F31" s="1">
-        <v>83</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H31" s="36" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="28">
-        <v>7</v>
-      </c>
-      <c r="E32" s="28">
-        <v>8</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="1">
-        <v>80</v>
-      </c>
-      <c r="D33" s="31">
-        <v>9</v>
-      </c>
-      <c r="E33" s="31">
-        <v>10</v>
-      </c>
-      <c r="F33" s="1">
-        <v>79</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H33" s="36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" s="1">
-        <v>85</v>
-      </c>
-      <c r="D34" s="31">
-        <v>11</v>
-      </c>
-      <c r="E34" s="31">
-        <v>12</v>
-      </c>
-      <c r="F34" s="1">
-        <v>84</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H34" s="36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="1">
-        <v>27</v>
-      </c>
-      <c r="D35" s="29">
-        <v>13</v>
-      </c>
-      <c r="E35" s="31">
-        <v>14</v>
-      </c>
-      <c r="F35" s="1">
-        <v>86</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H35" s="36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="28">
-        <v>15</v>
-      </c>
-      <c r="E36" s="28">
-        <v>16</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D37" s="30">
-        <v>17</v>
-      </c>
-      <c r="E37" s="30">
-        <v>18</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38" s="30">
-        <v>19</v>
-      </c>
-      <c r="E38" s="30">
-        <v>20</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C39" s="1">
-        <v>89</v>
-      </c>
-      <c r="D39" s="30">
-        <v>21</v>
-      </c>
-      <c r="E39" s="30">
-        <v>22</v>
-      </c>
-      <c r="F39" s="1">
-        <v>88</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H39" s="36" t="s">
-        <v>19</v>
+      <c r="J39" s="15" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D28:E28"/>
+  <mergeCells count="6">
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1756,7 +2134,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1789,30 +2167,30 @@
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="8">
-        <v>2</v>
+      <c r="B2" s="5">
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="8">
-        <v>0</v>
+      <c r="D2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="5">
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="4">
         <f ca="1">(B2*32)+(D3*8)+E2</f>
-        <v>88</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D3" s="9">
+      <c r="D3" s="6">
         <f ca="1">(COLUMN(INDIRECT(D2&amp;"1")))-1</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1834,19 +2212,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>83</v>
+      <c r="A1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="39" t="s">
         <v>82</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
